--- a/Calibration/TensioCalib_HELLFIRE.xlsx
+++ b/Calibration/TensioCalib_HELLFIRE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mixcraftio\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mixcraftio\Code\Repos\Hellfire\Calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FE54026-A5FF-4831-8537-729DF7187AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E80474-941D-4521-8706-DCA669B93125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{11EBBD47-8568-4CE9-9452-1BDAAF11B1C5}"/>
   </bookViews>
@@ -260,6 +260,8 @@
         <c:axId val="799541135"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1023"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -277,6 +279,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Valeur brute</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -339,6 +396,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Masse</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -985,16 +1097,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>400049</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>81642</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>68035</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>400049</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>48985</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>68035</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>5442</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1322,7 +1434,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
